--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1583.265848474107</v>
+        <v>1597.712711525563</v>
       </c>
       <c r="B2" t="n">
-        <v>2796.565642948063</v>
+        <v>2984.914824628064</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13233.09433961941</v>
+        <v>13056.133776026</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6545.464546409888</v>
+        <v>6461.19731581765</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5481.54652630357</v>
+        <v>5608.841705680441</v>
       </c>
       <c r="B2" t="n">
-        <v>9215.839927382065</v>
+        <v>9517.172998209604</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47847.39902196761</v>
+        <v>47139.53290541803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20620.92118256685</v>
+        <v>20652.42563547353</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30373.67081664087</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30373.67081664087</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30373.67081664087</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>11211.35782843197</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>30262.1315798235</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>112859.4041722133</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.92571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30373.67081664087</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1583.265848474107</v>
+        <v>1324.63894556564</v>
       </c>
       <c r="B2" t="n">
-        <v>2796.565642948063</v>
+        <v>496.33841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13233.09433961941</v>
+        <v>14916.6874138857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.925712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6545.464546409888</v>
+        <v>6165.919999753954</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5481.54652630357</v>
+        <v>6750.943649552031</v>
       </c>
       <c r="B2" t="n">
-        <v>9215.839927382065</v>
+        <v>496.33841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47847.39902196761</v>
+        <v>49139.4511299474</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.925712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20620.92118256685</v>
+        <v>18823.33856294499</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>10427.83342855381</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>496.33841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>98824.11718981928</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.925712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30551.82248422437</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>10427.83342855381</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>496.33841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>98824.11718981928</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.925712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30551.82248422437</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>10427.83342855381</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>496.33841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>98824.11718981928</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.925712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30551.82248422437</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10633.85104590225</v>
+        <v>10427.83342855381</v>
       </c>
       <c r="B2" t="n">
-        <v>30211.24826707616</v>
+        <v>496.33841664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114670.2315131919</v>
+        <v>98824.11718981928</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661605</v>
+        <v>8095.925712661822</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30563.03930120126</v>
+        <v>30551.82248422437</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1324.63894556564</v>
+        <v>1354.266239954146</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14916.6874138857</v>
+        <v>14593.81080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6165.919999753954</v>
+        <v>6105.772416845954</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6750.943649552031</v>
+        <v>7006.612294296272</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49139.4511299474</v>
+        <v>48062.57673421615</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18823.33856294499</v>
+        <v>18830.21934571769</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30293.68724824396</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30293.68724824396</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30293.68724824396</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10922.66418611039</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>97134.47552676313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30293.68724824396</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14916.6874138857</v>
+        <v>14916.68741388572</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6165.919999753954</v>
+        <v>6165.91999975397</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6750.943649552031</v>
+        <v>6750.943649552039</v>
       </c>
       <c r="B2" t="n">
         <v>496.33841664</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18823.33856294499</v>
+        <v>18823.33856294501</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10427.83342855401</v>
       </c>
       <c r="B2" t="n">
         <v>496.33841664</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>98824.11718981911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30551.82248422417</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +801,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10427.83342855401</v>
       </c>
       <c r="B2" t="n">
         <v>496.33841664</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>98824.11718981911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30551.82248422417</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10427.83342855401</v>
       </c>
       <c r="B2" t="n">
         <v>496.33841664</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>98824.11718981911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30551.82248422417</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855381</v>
+        <v>10427.83342855401</v>
       </c>
       <c r="B2" t="n">
         <v>496.33841664</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981928</v>
+        <v>98824.11718981911</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661822</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422437</v>
+        <v>30551.82248422417</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1324.63894556564</v>
+        <v>1354.266239954147</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14916.68741388572</v>
+        <v>14593.81080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6165.91999975397</v>
+        <v>6105.772416845953</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6750.943649552039</v>
+        <v>7006.612294296281</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49139.4511299474</v>
+        <v>48062.57673421613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18823.33856294501</v>
+        <v>18830.21934571771</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>

--- a/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1324.63894556564</v>
+        <v>1354.266239954147</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14916.68741388572</v>
+        <v>14593.81080446055</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6165.91999975397</v>
+        <v>6105.772416845953</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6750.943649552039</v>
+        <v>7006.612294296281</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49139.4511299474</v>
+        <v>48062.57673421613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18823.33856294501</v>
+        <v>18830.21934571771</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>10922.66418611043</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>738.8713277268605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>97134.47552676345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30293.6872482439</v>
       </c>
     </row>
   </sheetData>
